--- a/atomica/library/cervicalcancer_framework.xlsx
+++ b/atomica/library/cervicalcancer_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484EF204-EF82-46A8-9DDB-F28DAEFDAE9E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBBB51C-9552-9548-8AF1-C7006233CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2640" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,17 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -793,9 +799,6 @@
     <t>Acquisition rate</t>
   </si>
   <si>
-    <t>probability</t>
-  </si>
-  <si>
     <t>num_acq/max(sus,num_acq)</t>
   </si>
   <si>
@@ -875,6 +878,9 @@
   </si>
   <si>
     <t>Currently treated</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -929,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,7 +950,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,42 +961,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -1082,170 +1052,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -1273,9 +1079,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1313,9 +1119,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,26 +1154,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1400,26 +1189,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1599,13 +1371,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1621,22 +1393,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1652,7 +1424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1668,7 +1440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1676,7 +1448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1697,13 +1469,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1711,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1719,39 +1491,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
@@ -1769,16 +1541,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1809,7 +1581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1823,7 +1595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1838,7 +1610,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1625,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1868,7 +1640,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
@@ -1883,7 +1655,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1899,7 +1671,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>44</v>
       </c>
@@ -1916,24 +1688,14 @@
       <c r="F9" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="34" priority="4">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="33" priority="3">
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="32" priority="2">
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>AND(A9&lt;&gt;"",NOT(B9&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1954,9 +1716,9 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1993,7 +1755,7 @@
         <v>dead_cc</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>source</v>
@@ -2003,7 +1765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>sus</v>
@@ -2016,7 +1778,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>undx</v>
@@ -2032,7 +1794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>scr</v>
@@ -2048,7 +1810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>dx</v>
@@ -2064,7 +1826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Compartments!$A$7</f>
         <v>tx</v>
@@ -2074,94 +1836,37 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>Compartments!$A$8</f>
         <v>dead</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>Compartments!$A$9</f>
         <v>dead_cc</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="30" priority="7">
-      <formula>LEN(TRIM(H7))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="8">
-      <formula>LEN(TRIM(H7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:G7">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="21">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="19">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="notContainsBlanks" dxfId="26" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="20">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="notContainsBlanks" dxfId="25" priority="18">
-      <formula>LEN(TRIM(H3))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="17">
+  <conditionalFormatting sqref="H3:H7">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="7">
       <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="notContainsBlanks" dxfId="23" priority="14">
-      <formula>LEN(TRIM(H4))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="13">
-      <formula>LEN(TRIM(H4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="notContainsBlanks" dxfId="21" priority="12">
-      <formula>LEN(TRIM(H5))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="11">
-      <formula>LEN(TRIM(H5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="10">
-      <formula>LEN(TRIM(H6))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="9">
-      <formula>LEN(TRIM(H6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="notContainsBlanks" dxfId="17" priority="6">
+  <conditionalFormatting sqref="I4:I6">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(I4))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="16" priority="5">
-      <formula>LEN(TRIM(I4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="4">
-      <formula>LEN(TRIM(I5))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="3">
-      <formula>LEN(TRIM(I5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="2">
-      <formula>LEN(TRIM(I6))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
-      <formula>LEN(TRIM(I6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2177,16 +1882,16 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2203,11 +1908,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2224,7 +1929,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
@@ -2241,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
@@ -2258,7 +1963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
@@ -2275,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>68</v>
       </c>
@@ -2308,23 +2013,23 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F12" activeCellId="4" sqref="F4 F6 F8 F10 F12:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2353,7 +2058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -2373,7 +2078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>78</v>
       </c>
@@ -2394,7 +2099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -2402,29 +2107,27 @@
         <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>77</v>
@@ -2442,37 +2145,35 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>77</v>
@@ -2483,44 +2184,42 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>77</v>
@@ -2538,42 +2237,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="4">
         <v>0</v>
       </c>
@@ -2586,40 +2283,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>108</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D13" s="4">
         <v>1.4999999999999999E-2</v>
@@ -2627,9 +2322,7 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="H13" s="4" t="s">
         <v>31</v>
       </c>
@@ -2637,15 +2330,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="D14" s="4">
         <v>0.05</v>
@@ -2653,9 +2346,7 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
+      <c r="F14" s="4"/>
       <c r="H14" s="4" t="s">
         <v>31</v>
       </c>
@@ -2663,7 +2354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2673,7 +2364,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2683,7 +2374,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2693,7 +2384,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2703,7 +2394,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2713,7 +2404,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2723,7 +2414,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2733,7 +2424,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2743,7 +2434,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2753,7 +2444,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2764,75 +2455,53 @@
       <c r="H24" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>AND(A3&lt;&gt;"",NOT(B3&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="10" priority="14">
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>AND(A4&lt;&gt;"",NOT(B4&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="B6:B8">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="2" priority="13">
       <formula>AND(#REF!&lt;&gt;"",NOT(I4&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND(#REF!&lt;&gt;"",NOT(I6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>AND(#REF!&lt;&gt;"",NOT(I7&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND(A7&lt;&gt;"",NOT(B7&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(A8&lt;&gt;"",NOT(B8&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(A10&lt;&gt;"",NOT(B10&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(A13&lt;&gt;"",NOT(B13&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(A14&lt;&gt;"",NOT(B14&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H4:H12 H15:H24" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H13:H14" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C4:C24" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15:C24" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{2416FC75-9090-D24F-870E-B10582B00255}">
+      <formula1>",number,probability,duration,proportion, rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2849,47 +2518,47 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>68</v>
